--- a/biology/Médecine/Hôpital_Sendwe/Hôpital_Sendwe.xlsx
+++ b/biology/Médecine/Hôpital_Sendwe/Hôpital_Sendwe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Sendwe</t>
+          <t>Hôpital_Sendwe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Hôpital Jason Sendwe est le plus grand hôpital de la province du Katanga, en République démocratique du Congo. Il est situé à Lubumbashi. La gestion de l'hôpital a été reprise en 1974 par la Gécamines et ses employés[1]. Le 30 juillet 2005, la gestion de l'hôpital retourne à l'Université de Lubumbashi[2].
+L’Hôpital Jason Sendwe est le plus grand hôpital de la province du Katanga, en République démocratique du Congo. Il est situé à Lubumbashi. La gestion de l'hôpital a été reprise en 1974 par la Gécamines et ses employés. Le 30 juillet 2005, la gestion de l'hôpital retourne à l'Université de Lubumbashi.
 Depuis la restitution de la gestion de l'hôpital général Jason Sendwe à l'université de Lubumbashi, cette institution médicale a connu deux médecins directeur à savoir le Professeur Dr Wembonyama (pédiatre) et le Professeur Dr Kalenga Mwenze Kayamba (gynécologue-obstétricien).
-L’hôpital compte 1 200 lits[3].
+L’hôpital compte 1 200 lits.
 </t>
         </is>
       </c>
